--- a/InputFiles/CCDI/phs003111-diagnosis.xlsx
+++ b/InputFiles/CCDI/phs003111-diagnosis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A1B63D-292B-450F-A484-657FCC522134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8868265-5364-4969-B055-DDC26E349A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phs003111-diagnosis_20230817145" sheetId="1" r:id="rId1"/>
@@ -2766,14 +2766,17 @@
   <dimension ref="A1:U172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="62.81640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.1796875" bestFit="1" customWidth="1"/>
@@ -8317,8 +8320,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U172">
-    <sortCondition ref="F1:F172"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U173">
+    <sortCondition ref="F1:F173"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
